--- a/Docs/ATE-2i10G for Sigmatron.xlsx
+++ b/Docs/ATE-2i10G for Sigmatron.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocuments\ate\AutoTesters\TCL\ETX-2i-10G\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3965292B-B511-4DA1-ABD0-74DF301CEEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC6346E-3789-4A13-B4C3-B0830B55B20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="1335" windowWidth="20265" windowHeight="12780" xr2:uid="{F4EA2C0F-18A0-4F99-B7BC-942E21D7B492}"/>
+    <workbookView xWindow="5985" yWindow="90" windowWidth="20265" windowHeight="13845" xr2:uid="{F4EA2C0F-18A0-4F99-B7BC-942E21D7B492}"/>
   </bookViews>
   <sheets>
     <sheet name="Rack 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>Product</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>COO</t>
-  </si>
-  <si>
-    <t>PC+kb+mouse LENOVO</t>
   </si>
   <si>
     <t>China</t>
@@ -130,9 +127,6 @@
     <t>CBL-LC/LC/SM/0.3</t>
   </si>
   <si>
-    <t>Rack 19'' + 4 shelves</t>
-  </si>
-  <si>
     <t xml:space="preserve">ETX-220A/AC/4 (RAD product) </t>
   </si>
   <si>
@@ -160,10 +154,58 @@
     <t xml:space="preserve">AT-ETX2i10G/CBL11 (RAD product) </t>
   </si>
   <si>
-    <t>SFP 10G</t>
-  </si>
-  <si>
-    <t>SFP 10G Generator</t>
+    <t>DF100304037
+DF100304038</t>
+  </si>
+  <si>
+    <t>S1901280155
+S2111270118
+SO0000011800
+LT3190510075</t>
+  </si>
+  <si>
+    <t>OP23072204081
+OP23072204082
+OP23072204083
+OP23072204084
+OP23072204085
+OP23072204086
+OP23072204087
+OP23072204088
+OP23072204089
+OP23072204090
+OP23072204191
+OP23072204192
+OP23072204193
+OP23072204194
+OP23072204195
+OP23072204196
+OP23072204197
+OP23072204198
+OP23072204199
+OP23072204200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XFP-1D (RAD product) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFP-P-1DH (RAD product) </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Rack 19'' + 6 shelves</t>
+  </si>
+  <si>
+    <t>PC
+Keyboard
+Mouse LENOVO</t>
+  </si>
+  <si>
+    <t>SGM0YRR3T
+8SSD51P83222L1DG54ED175
+8SSM51M37184P3CQ538A174</t>
   </si>
 </sst>
 </file>
@@ -225,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -233,9 +275,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -253,6 +292,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -262,10 +310,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -314,13 +362,13 @@
   <autoFilter ref="A4:F30" xr:uid="{4C454C1F-FB2A-4B09-8E7A-4324D25A1D21}"/>
   <tableColumns count="6">
     <tableColumn id="2" xr3:uid="{7D29B231-CF54-4C93-A1A0-1A3F8C21ED8C}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{3F953E00-6DF2-4BE0-BFA2-74ADFB18459A}" name="Price $USD" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{A9207DAA-E181-4A1E-8C6D-68046CED5D55}" name="Quantity" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{3BDFDCB3-7CF1-4CE7-9ABE-4474CFC50AF8}" name="Total $USD" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{3F953E00-6DF2-4BE0-BFA2-74ADFB18459A}" name="Price $USD" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{A9207DAA-E181-4A1E-8C6D-68046CED5D55}" name="Quantity" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{3BDFDCB3-7CF1-4CE7-9ABE-4474CFC50AF8}" name="Total $USD" dataDxfId="2">
       <calculatedColumnFormula>C5*B5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{08655D09-C4E4-4530-9913-956541958307}" name="S.N." dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{3B161EB0-2701-4309-9E61-774FCD80F47F}" name="COO" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{08655D09-C4E4-4530-9913-956541958307}" name="S.N." dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{3B161EB0-2701-4309-9E61-774FCD80F47F}" name="COO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -625,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BA52B1-4968-4F2E-BE94-1D63F71DFA40}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,8 +683,8 @@
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -645,14 +693,14 @@
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -670,37 +718,37 @@
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="7">
         <v>625</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
         <f t="shared" ref="D5:D6" si="0">C5*B5</f>
         <v>625</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
+      <c r="E5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>30</v>
@@ -712,16 +760,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>14340324508</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>10</v>
@@ -730,19 +778,19 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <f>C7*B7</f>
+        <f t="shared" ref="D7:D14" si="1">C7*B7</f>
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>95</v>
@@ -751,19 +799,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <f>C8*B8</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>14</v>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>5</v>
@@ -772,16 +820,19 @@
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <f>C9*B9</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>5</v>
@@ -790,16 +841,19 @@
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <f>C10*B10</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="E10" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2">
         <v>1200</v>
@@ -808,79 +862,82 @@
         <v>2</v>
       </c>
       <c r="D11" s="2">
-        <f>C11*B11</f>
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
+      <c r="E11" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8">
-        <v>45</v>
-      </c>
-      <c r="C12" s="8">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8">
-        <f>C12*B12</f>
-        <v>180</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7">
+        <v>152</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="1"/>
+        <v>304</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7">
+        <v>300</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="8">
-        <v>152</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8">
-        <f>C13*B13</f>
-        <v>304</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="8">
-        <v>300</v>
-      </c>
-      <c r="C14" s="8">
-        <v>2</v>
-      </c>
-      <c r="D14" s="8">
-        <f>C14*B14</f>
-        <v>600</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
         <v>200</v>
@@ -889,19 +946,19 @@
         <v>1</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:D23" si="1">C15*B15</f>
+        <f t="shared" ref="D15:D23" si="2">C15*B15</f>
         <v>200</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>8</v>
+      <c r="E15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -910,16 +967,19 @@
         <v>5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:D20" si="2">C16*B16</f>
+        <f t="shared" ref="D16:D20" si="3">C16*B16</f>
         <v>5</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>7</v>
+      <c r="E16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -931,13 +991,16 @@
         <f>C17*B17</f>
         <v>1</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>7</v>
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
@@ -946,16 +1009,19 @@
         <v>2</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>7</v>
+      <c r="E18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2">
@@ -965,66 +1031,92 @@
         <f>C19*B19</f>
         <v>0</v>
       </c>
+      <c r="E19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="E20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7">
         <f>C21*B21</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="E21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>20</v>
+      </c>
+      <c r="D22" s="7">
         <f>C22*B22</f>
         <v>0</v>
       </c>
+      <c r="E22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
         <v>2</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
@@ -1036,13 +1128,16 @@
         <f>C24*B24</f>
         <v>2</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>8</v>
+      <c r="E24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2">
         <v>2</v>
@@ -1054,13 +1149,16 @@
         <f>C25*B25</f>
         <v>8</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2">
         <v>3</v>
@@ -1069,16 +1167,19 @@
         <v>2</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" ref="D26:D29" si="3">C26*B26</f>
-        <v>6</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>8</v>
+        <f t="shared" ref="D26:D29" si="4">C26*B26</f>
+        <v>6</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2">
         <v>0.5</v>
@@ -1090,13 +1191,16 @@
         <f>C27*B27</f>
         <v>1</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
@@ -1108,13 +1212,16 @@
         <f>C28*B28</f>
         <v>8</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>8</v>
+      <c r="E28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2">
         <v>450</v>
@@ -1123,19 +1230,23 @@
         <v>1</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>8</v>
+      <c r="E29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="2">
@@ -1143,7 +1254,6 @@
         <v>4985</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Docs/ATE-2i10G for Sigmatron.xlsx
+++ b/Docs/ATE-2i10G for Sigmatron.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocuments\ate\AutoTesters\TCL\ETX-2i-10G\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC6346E-3789-4A13-B4C3-B0830B55B20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63383D44-70E1-4753-9D93-75CC72001880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="90" windowWidth="20265" windowHeight="13845" xr2:uid="{F4EA2C0F-18A0-4F99-B7BC-942E21D7B492}"/>
+    <workbookView xWindow="3855" yWindow="1185" windowWidth="20265" windowHeight="13845" xr2:uid="{F4EA2C0F-18A0-4F99-B7BC-942E21D7B492}"/>
   </bookViews>
   <sheets>
     <sheet name="Rack 1" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>GS108D243605286</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>USB2.0 to 4S Serial Adapter</t>
   </si>
   <si>
@@ -95,10 +92,6 @@
 WZ17621071000514</t>
   </si>
   <si>
-    <t>1604007311
-1641005612</t>
-  </si>
-  <si>
     <t>2312009504
 2312009497</t>
   </si>
@@ -106,9 +99,6 @@
     <t>BB100011787</t>
   </si>
   <si>
-    <t>BARCODE scanner HONEYWELL</t>
-  </si>
-  <si>
     <t>CBL-ETH/STP/STR</t>
   </si>
   <si>
@@ -131,9 +121,6 @@
   </si>
   <si>
     <t xml:space="preserve">ATE-PIO-USB (RAD product) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATE-MultiMux (RAD product) </t>
   </si>
   <si>
     <t xml:space="preserve">ATE-RELAY-BOX-4 (RAD product) </t>
@@ -206,6 +193,18 @@
     <t>SGM0YRR3T
 8SSD51P83222L1DG54ED175
 8SSM51M37184P3CQ538A174</t>
+  </si>
+  <si>
+    <t>S25022010558978</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Power outlet strip  </t>
+  </si>
+  <si>
+    <t>Barcode Scanner DS2208</t>
   </si>
 </sst>
 </file>
@@ -292,14 +291,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,7 +673,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,14 +692,14 @@
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -726,8 +725,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>44</v>
+      <c r="A5" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="7">
         <v>625</v>
@@ -740,7 +739,7 @@
         <v>625</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>6</v>
@@ -748,7 +747,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>30</v>
@@ -790,7 +789,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2">
         <v>95</v>
@@ -803,28 +802,28 @@
         <v>95</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
@@ -845,91 +844,91 @@
         <v>5</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <f>C11*B11</f>
+        <v>5</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
         <v>1200</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7">
         <v>45</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="7">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="E13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="7">
         <v>152</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="7">
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="7">
-        <v>300</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>7</v>
@@ -937,7 +936,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2">
         <v>200</v>
@@ -950,7 +949,7 @@
         <v>200</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>7</v>
@@ -958,7 +957,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -971,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>6</v>
@@ -979,7 +978,7 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -992,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>6</v>
@@ -1000,7 +999,7 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
@@ -1013,7 +1012,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>6</v>
@@ -1021,18 +1020,20 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7</v>
+      </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2">
         <f>C19*B19</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>6</v>
@@ -1040,18 +1041,20 @@
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
       <c r="C20" s="2">
         <v>9</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>6</v>
@@ -1059,18 +1062,20 @@
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="B21" s="7">
+        <v>28.5</v>
+      </c>
       <c r="C21" s="7">
         <v>4</v>
       </c>
       <c r="D21" s="7">
         <f>C21*B21</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>7</v>
@@ -1078,18 +1083,20 @@
     </row>
     <row r="22" spans="1:7" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="B22" s="7">
+        <v>6.25</v>
+      </c>
       <c r="C22" s="7">
         <v>20</v>
       </c>
       <c r="D22" s="7">
         <f>C22*B22</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>7</v>
@@ -1097,18 +1104,20 @@
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.5</v>
+      </c>
       <c r="C23" s="2">
         <v>2</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>6</v>
@@ -1116,7 +1125,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
@@ -1129,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>7</v>
@@ -1137,7 +1146,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2">
         <v>2</v>
@@ -1150,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>7</v>
@@ -1158,7 +1167,7 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2">
         <v>3</v>
@@ -1171,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>7</v>
@@ -1179,7 +1188,7 @@
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2">
         <v>0.5</v>
@@ -1192,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>7</v>
@@ -1200,7 +1209,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
@@ -1213,7 +1222,7 @@
         <v>8</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>7</v>
@@ -1221,7 +1230,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2">
         <v>450</v>
@@ -1234,7 +1243,7 @@
         <v>450</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>7</v>
@@ -1251,7 +1260,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="2">
         <f>SUM(D5:D30)</f>
-        <v>4985</v>
+        <v>4669</v>
       </c>
       <c r="F31" s="4"/>
     </row>

--- a/Docs/ATE-2i10G for Sigmatron.xlsx
+++ b/Docs/ATE-2i10G for Sigmatron.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocuments\ate\AutoTesters\TCL\ETX-2i-10G\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63383D44-70E1-4753-9D93-75CC72001880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6BE7EB-82AF-4FD5-9A0F-3055143FD36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="1185" windowWidth="20265" windowHeight="13845" xr2:uid="{F4EA2C0F-18A0-4F99-B7BC-942E21D7B492}"/>
+    <workbookView xWindow="7965" yWindow="885" windowWidth="20265" windowHeight="13845" xr2:uid="{F4EA2C0F-18A0-4F99-B7BC-942E21D7B492}"/>
   </bookViews>
   <sheets>
     <sheet name="Rack 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>Product</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>Barcode Scanner DS2208</t>
+  </si>
+  <si>
+    <t>ETX-2i-10G (RAD product, Golden Sample)</t>
+  </si>
+  <si>
+    <t>DF1003062694</t>
+  </si>
+  <si>
+    <t>Test Equipment (Power supply for JTAG station)</t>
   </si>
 </sst>
 </file>
@@ -266,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -300,6 +309,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,8 +370,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C454C1F-FB2A-4B09-8E7A-4324D25A1D21}" name="Table1" displayName="Table1" ref="A4:F30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A4:F30" xr:uid="{4C454C1F-FB2A-4B09-8E7A-4324D25A1D21}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C454C1F-FB2A-4B09-8E7A-4324D25A1D21}" name="Table1" displayName="Table1" ref="A4:F32" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A4:F32" xr:uid="{4C454C1F-FB2A-4B09-8E7A-4324D25A1D21}"/>
   <tableColumns count="6">
     <tableColumn id="2" xr3:uid="{7D29B231-CF54-4C93-A1A0-1A3F8C21ED8C}" name="Product"/>
     <tableColumn id="3" xr3:uid="{3F953E00-6DF2-4BE0-BFA2-74ADFB18459A}" name="Price $USD" dataDxfId="4"/>
@@ -670,15 +683,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BA52B1-4968-4F2E-BE94-1D63F71DFA40}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
@@ -1123,22 +1136,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="B24" s="13">
+        <v>540</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="2">
         <f>C24*B24</f>
-        <v>2</v>
+        <v>540</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>7</v>
@@ -1146,38 +1159,38 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2">
         <v>2</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2">
         <f>C25*B25</f>
+        <v>2</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <f>C26*B26</f>
         <v>8</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="2">
-        <v>3</v>
-      </c>
-      <c r="C26" s="2">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" ref="D26:D29" si="4">C26*B26</f>
-        <v>6</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>38</v>
@@ -1188,17 +1201,17 @@
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2">
         <v>2</v>
       </c>
       <c r="D27" s="2">
-        <f>C27*B27</f>
-        <v>1</v>
+        <f t="shared" ref="D27:D31" si="4">C27*B27</f>
+        <v>6</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>38</v>
@@ -1207,19 +1220,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="2">
         <v>2</v>
-      </c>
-      <c r="C28" s="2">
-        <v>4</v>
       </c>
       <c r="D28" s="2">
         <f>C28*B28</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>38</v>
@@ -1230,39 +1243,81 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <f>C29*B29</f>
+        <v>8</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="13">
+        <v>50</v>
+      </c>
+      <c r="C30" s="13">
+        <v>6</v>
+      </c>
+      <c r="D30" s="13">
+        <f>C30*B30</f>
+        <v>300</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B31" s="2">
         <v>450</v>
       </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+      <c r="E31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="2">
-        <f>SUM(D5:D30)</f>
-        <v>4669</v>
-      </c>
-      <c r="F31" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="2">
+        <f>SUM(D5:D32)</f>
+        <v>5509</v>
+      </c>
+      <c r="F33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
